--- a/Instances/K0011311_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a0.1.xlsx
+++ b/Instances/K0011311_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a0.1.xlsx
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/Instances/K0011311_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a0.1.xlsx
+++ b/Instances/K0011311_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a0.1.xlsx
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1276,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
